--- a/va_facility_data_2025-02-20/Lamar VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lamar%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lamar VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lamar%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rbc0820a5c0cc4c41b76d20e92bdbb3be"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra825675599934eb7b75d6fcd5703cd5d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0830305d301e487aba449cc9fdaadfb8"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9efb8cf48b1b410e9890b541c737e9f0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R25828f520caf4bd1be4d6e9e2dc79303"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R949135afb2ef4d2abab86ebd44e4aef1"/>
   </x:sheets>
 </x:workbook>
 </file>
